--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_6_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_6_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>8.420760686211892e-05</v>
+        <v>8.412080368280783e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003095032416206352</v>
+        <v>3.817782814854226e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.761700105903318</v>
+        <v>5.765171682625756</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.1002079509045366, 7.4231922609021]</t>
+          <t>[2.628374463533204, 8.901968901718307]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0004927097245781553</v>
+        <v>0.0003462748986908792</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0004927097245781553</v>
+        <v>0.0003462748986908792</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.144684410317002</v>
+        <v>-0.9056843686024632</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, -0.5283158816847697]</t>
+          <t>[-1.4088423511593877, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003007241844070752</v>
+        <v>0.0004557246923508895</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0003007241844070752</v>
+        <v>0.0004557246923508895</v>
       </c>
       <c r="S2" t="n">
-        <v>11.522846331849</v>
+        <v>11.44577489943677</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.015806123269089, 13.029886540428903]</t>
+          <t>[9.81141426750001, 13.080135531373537]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.625605605605703</v>
+        <v>3.671351351351433</v>
       </c>
       <c r="X2" t="n">
-        <v>2.13489489489494</v>
+        <v>1.631711711711747</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.116316316316466</v>
+        <v>5.710990990991119</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.680910634016541e-07</v>
+        <v>1.360274543005247e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>4.365036649345506e-06</v>
+        <v>3.503536500566756e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.445708921599241</v>
+        <v>5.415194213472541</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.0017264086826723, 7.88969143451581]</t>
+          <t>[3.0190192907260514, 7.81136913621903]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.496159070946135e-05</v>
+        <v>1.135957846853941e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.99231814189227e-05</v>
+        <v>2.271915693707882e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>2.094395102393196</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 2.5849741353861964]</t>
+          <t>[2.257921446724196, 3.213921613582351]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.47589079302109</v>
+        <v>11.20575045319496</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.142064585887667, 12.809717000154514]</t>
+          <t>[9.892643995937174, 12.518856910452737]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.84000000000018</v>
+        <v>13.54390390390408</v>
       </c>
       <c r="X3" t="n">
-        <v>13.98486486486502</v>
+        <v>11.71883883883899</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.69513513513534</v>
+        <v>15.36896896896917</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_6_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_6_sawtooth_05_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>8.412080368280783e-06</v>
+        <v>1.453235494397465e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.817782814854226e-05</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>5.515402181126405e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3938659180975836</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.765171682625756</v>
+        <v>5.329255677196859</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.628374463533204, 8.901968901718307]</t>
+          <t>[2.485766178254927, 8.172745176138791]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0003462748986908792</v>
+        <v>0.0002650989325072572</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003462748986908792</v>
+        <v>0.0002650989325072572</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.4088423511593877, -0.4025263860455386]</t>
+          <t>[-1.6855792415656952, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004557246923508895</v>
+        <v>0.0001982190800002837</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0004557246923508895</v>
+        <v>0.0001982190800002837</v>
       </c>
       <c r="S2" t="n">
-        <v>11.44577489943677</v>
+        <v>11.38288162205234</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.81141426750001, 13.080135531373537]</t>
+          <t>[9.838869102595822, 12.92689414150886]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.671351351351433</v>
+        <v>4.47487487487497</v>
       </c>
       <c r="X2" t="n">
-        <v>1.631711711711747</v>
+        <v>2.135735735735781</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.710990990991119</v>
+        <v>6.81401401401416</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +654,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.360274543005247e-07</v>
+        <v>5.949490566869997e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.503536500566756e-06</v>
+        <v>1.479773796160518e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.415194213472541</v>
+        <v>5.558221209504572</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.0190192907260514, 7.81136913621903]</t>
+          <t>[3.227263172725954, 7.889179246283191]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.135957846853941e-05</v>
+        <v>3.732829470415311e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.271915693707882e-05</v>
+        <v>7.465658940830622e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.735921530153274</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.257921446724196, 3.213921613582351]</t>
+          <t>[2.4591846397469648, 3.390026907477274]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.20575045319496</v>
+        <v>11.77279642439262</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.892643995937174, 12.518856910452737]</t>
+          <t>[10.461040232734662, 13.084552616050571]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.54390390390408</v>
+        <v>12.86624624624642</v>
       </c>
       <c r="X3" t="n">
-        <v>11.71883883883899</v>
+        <v>11.08328328328343</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.36896896896917</v>
+        <v>14.64920920920941</v>
       </c>
     </row>
   </sheetData>
